--- a/wp1/rgvars.xlsx
+++ b/wp1/rgvars.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Country\Russia\Data\SEASHELL\SEABYTE\edreru\wp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95796855-7EE8-49C5-84F5-D12E2DEF5FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0184B313-1C2E-4109-A7AF-FEA1BF8B7EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{71077C27-B33C-4E6C-9E01-611AE29A320F}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="313">
   <si>
     <t>Российская Федерация</t>
   </si>
@@ -722,6 +724,255 @@
   </si>
   <si>
     <t>unemploy_2</t>
+  </si>
+  <si>
+    <t>RoR_names</t>
+  </si>
+  <si>
+    <t>altai_kr</t>
+  </si>
+  <si>
+    <t>amur_obl</t>
+  </si>
+  <si>
+    <t>arkhangelsk_obl</t>
+  </si>
+  <si>
+    <t>astrakhan_obl</t>
+  </si>
+  <si>
+    <t>belgorod_obl</t>
+  </si>
+  <si>
+    <t>bryansk_obl</t>
+  </si>
+  <si>
+    <t>vladimir_obl</t>
+  </si>
+  <si>
+    <t>volgograd_obl</t>
+  </si>
+  <si>
+    <t>vologda_obl</t>
+  </si>
+  <si>
+    <t>voronezh_obl</t>
+  </si>
+  <si>
+    <t>moscow</t>
+  </si>
+  <si>
+    <t>spetersburg</t>
+  </si>
+  <si>
+    <t>jewish_aobl</t>
+  </si>
+  <si>
+    <t>zabaykalsky_kr</t>
+  </si>
+  <si>
+    <t>ivanovo_obl</t>
+  </si>
+  <si>
+    <t>irkutsk_obl</t>
+  </si>
+  <si>
+    <t>kabardin_rep</t>
+  </si>
+  <si>
+    <t>kaliningrad_obl</t>
+  </si>
+  <si>
+    <t>kaluga_obl</t>
+  </si>
+  <si>
+    <t>kamchatka_kr</t>
+  </si>
+  <si>
+    <t>karachay_rep</t>
+  </si>
+  <si>
+    <t>kemerovo_obl</t>
+  </si>
+  <si>
+    <t>kirov_obl</t>
+  </si>
+  <si>
+    <t>kostroma_obl</t>
+  </si>
+  <si>
+    <t>krasnodar_kr</t>
+  </si>
+  <si>
+    <t>krasnoyarsk_kr</t>
+  </si>
+  <si>
+    <t>kurgan_obl</t>
+  </si>
+  <si>
+    <t>kursk_obl</t>
+  </si>
+  <si>
+    <t>leningrad_obl</t>
+  </si>
+  <si>
+    <t>lipetsk_obl</t>
+  </si>
+  <si>
+    <t>magadan_obl</t>
+  </si>
+  <si>
+    <t>moscow_obl</t>
+  </si>
+  <si>
+    <t>murmansk_obl</t>
+  </si>
+  <si>
+    <t>nizhnynovgorod_obl</t>
+  </si>
+  <si>
+    <t>novgorod_obl</t>
+  </si>
+  <si>
+    <t>novosibirsk_obl</t>
+  </si>
+  <si>
+    <t>omsk_obl</t>
+  </si>
+  <si>
+    <t>orenburg_obl</t>
+  </si>
+  <si>
+    <t>oryol_obl</t>
+  </si>
+  <si>
+    <t>penza_obl</t>
+  </si>
+  <si>
+    <t>perm_kr</t>
+  </si>
+  <si>
+    <t>primorsky_kr</t>
+  </si>
+  <si>
+    <t>pskov_obl</t>
+  </si>
+  <si>
+    <t>adygea_rep</t>
+  </si>
+  <si>
+    <t>altai_rep</t>
+  </si>
+  <si>
+    <t>bashkortostan_rep</t>
+  </si>
+  <si>
+    <t>buryatia_rep</t>
+  </si>
+  <si>
+    <t>dagestan_rep</t>
+  </si>
+  <si>
+    <t>ingushetia_rep</t>
+  </si>
+  <si>
+    <t>kalmykia_rep</t>
+  </si>
+  <si>
+    <t>karelia_rep</t>
+  </si>
+  <si>
+    <t>komi_rep</t>
+  </si>
+  <si>
+    <t>mariel_rep</t>
+  </si>
+  <si>
+    <t>mordovia_rep</t>
+  </si>
+  <si>
+    <t>yakutia_rep</t>
+  </si>
+  <si>
+    <t>alania_rep</t>
+  </si>
+  <si>
+    <t>tatarstan_rep</t>
+  </si>
+  <si>
+    <t>tyva_rep</t>
+  </si>
+  <si>
+    <t>khakassia_rep</t>
+  </si>
+  <si>
+    <t>rostov_obl</t>
+  </si>
+  <si>
+    <t>ryazan_obl</t>
+  </si>
+  <si>
+    <t>samara_obl</t>
+  </si>
+  <si>
+    <t>saratov_obl</t>
+  </si>
+  <si>
+    <t>sakhalin_obl</t>
+  </si>
+  <si>
+    <t>sverdlovsk_obl</t>
+  </si>
+  <si>
+    <t>smolensk_obl</t>
+  </si>
+  <si>
+    <t>stavropol_kr</t>
+  </si>
+  <si>
+    <t>tambov_obl</t>
+  </si>
+  <si>
+    <t>tver_obl</t>
+  </si>
+  <si>
+    <t>tomsk_obl</t>
+  </si>
+  <si>
+    <t>tula_obl</t>
+  </si>
+  <si>
+    <t>tyumen_obl</t>
+  </si>
+  <si>
+    <t>udmurt_rep</t>
+  </si>
+  <si>
+    <t>ulyanovsk_obl</t>
+  </si>
+  <si>
+    <t>khabarovsk_kr</t>
+  </si>
+  <si>
+    <t>khm_ao</t>
+  </si>
+  <si>
+    <t>chelyabinsk_obl</t>
+  </si>
+  <si>
+    <t>chechen_rep</t>
+  </si>
+  <si>
+    <t>chuvash_rep</t>
+  </si>
+  <si>
+    <t>chukotka_ao</t>
+  </si>
+  <si>
+    <t>yan_ao</t>
+  </si>
+  <si>
+    <t>yaroslav_obl</t>
   </si>
 </sst>
 </file>
@@ -1136,30 +1387,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05BDF77-ADBC-4347-B3F1-5501BCF35A19}">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="14.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="5"/>
-    <col min="7" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="9" width="8.7265625" style="5"/>
-    <col min="10" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="8.7265625" style="5"/>
-    <col min="12" max="12" width="8.7265625" style="10"/>
-    <col min="13" max="20" width="8.7265625" style="3"/>
-    <col min="21" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="24.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="14.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="5"/>
+    <col min="8" max="8" width="8.7265625" style="3"/>
+    <col min="9" max="10" width="8.7265625" style="5"/>
+    <col min="11" max="11" width="11.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="5"/>
+    <col min="13" max="13" width="8.7265625" style="10"/>
+    <col min="14" max="21" width="8.7265625" style="3"/>
+    <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>204</v>
       </c>
@@ -1169,59 +1421,62 @@
       <c r="C1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>205</v>
       </c>
@@ -1231,59 +1486,62 @@
       <c r="C2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="16">
+      <c r="F2" s="16">
         <v>210.35070000000002</v>
       </c>
-      <c r="F2" s="16">
+      <c r="G2" s="16">
         <v>56.4</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>485</v>
       </c>
-      <c r="H2" s="17">
+      <c r="I2" s="17">
         <v>218</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J2" s="16">
         <v>148</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>1.7</v>
       </c>
-      <c r="K2" s="16">
+      <c r="L2" s="16">
         <v>4.3</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>3</v>
       </c>
-      <c r="M2" s="8">
+      <c r="N2" s="8">
         <v>22</v>
       </c>
-      <c r="N2" s="8">
+      <c r="O2" s="8">
         <v>480</v>
       </c>
-      <c r="O2" s="8">
+      <c r="P2" s="8">
         <v>490</v>
       </c>
-      <c r="P2" s="8">
+      <c r="Q2" s="8">
         <v>0.59</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="R2" s="8">
         <v>3</v>
       </c>
-      <c r="R2" s="8">
+      <c r="S2" s="8">
         <v>5</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>0.375</v>
       </c>
-      <c r="T2" s="16">
+      <c r="U2" s="16">
         <v>6.9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1294,58 +1552,61 @@
         <v>119</v>
       </c>
       <c r="D3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>357.82900000000001</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>67.400000000000006</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>266</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>199</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>200</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>2.6</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>13.1</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>5</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>28</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>248</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>293</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>0.41</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>2</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>5</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>11</v>
       </c>
@@ -1356,58 +1617,61 @@
         <v>120</v>
       </c>
       <c r="D4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>379.97649999999999</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>78.2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>475</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>171</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>160</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>1.5</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>3.5</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>6</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>29</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>456</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>495</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>0.45</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>2</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>5</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>12</v>
       </c>
@@ -1418,58 +1682,61 @@
         <v>121</v>
       </c>
       <c r="D5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>332.44740000000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>66.599999999999994</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>455</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>289</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>204</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>1.2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>13.8</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>7</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>30</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>452</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>460</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>0.49</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>1</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>2</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>14</v>
       </c>
@@ -1480,58 +1747,61 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>470.87430000000001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>67.400000000000006</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>553</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>316</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>158</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>0.7</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>27.4</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>9</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>31</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>562</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>542</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>0.48</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>1</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>2</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>15</v>
       </c>
@@ -1542,58 +1812,61 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>233.70099999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>70.3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>635</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>223</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>160</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>0.9</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>0.2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>10</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>32</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>628</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>636</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>0.73</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>7</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>10</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>0.41176470588235292</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>17</v>
       </c>
@@ -1604,58 +1877,61 @@
         <v>124</v>
       </c>
       <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>281.36690000000004</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>78.2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>509</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>197</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>149</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>2.6</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>75</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>484</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>533</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>0.69</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>0.41176470588235292</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>18</v>
       </c>
@@ -1666,58 +1942,61 @@
         <v>125</v>
       </c>
       <c r="D9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>292.56569999999999</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>77</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>434</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>249</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>177</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>0.9</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>76</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>443</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>428</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>0.59</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>0.375</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>19</v>
       </c>
@@ -1728,58 +2007,61 @@
         <v>126</v>
       </c>
       <c r="D10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>410.03740000000005</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>72.400000000000006</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>543</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>162</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>169</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1.4</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>0.4</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>77</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>520</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>564</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>20</v>
       </c>
@@ -1790,58 +2072,61 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>360.41820000000001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>67.5</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>549</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>373</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>150</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>0.9</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>3.6</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>78</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>36</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>544</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>550</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>0.62</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>3</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>5</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <v>0.375</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>45</v>
       </c>
@@ -1852,58 +2137,61 @@
         <v>128</v>
       </c>
       <c r="D12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>1157.373</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>98.7</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>668</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>572</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>96</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>0.4</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>9</v>
       </c>
-      <c r="L12" s="10">
+      <c r="M12" s="10">
         <v>44</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>77</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>667</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>662</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>0.59</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>0.375</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>40</v>
       </c>
@@ -1914,58 +2202,61 @@
         <v>129</v>
       </c>
       <c r="D13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>712.30359999999996</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>100</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>529</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>549</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>146</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>0.4</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>63</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>78</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>522</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>535</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>0.37</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>2</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>5</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>1.7</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>67</v>
       </c>
@@ -1975,44 +2266,44 @@
       <c r="C14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>151.86270000000002</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>93</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>326</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>113</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>0.2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>0.7</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>0.375</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>99</v>
       </c>
@@ -2023,58 +2314,61 @@
         <v>131</v>
       </c>
       <c r="D15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>283.78309999999999</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>68.8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>281</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>130</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>109</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1.2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>1.6</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>20</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>79</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>270</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>0.76</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>0.44444444444444442</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>76</v>
       </c>
@@ -2085,58 +2379,61 @@
         <v>132</v>
       </c>
       <c r="D16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" t="s">
         <v>212</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>243.1104</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>68.2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>306</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>218</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>195</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>1.6</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>16.7</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <v>82</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>75</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>298</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>322</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <v>2</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>10</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T16" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="T16" s="3">
+      <c r="U16" s="3">
         <v>10.7</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>24</v>
       </c>
@@ -2147,58 +2444,61 @@
         <v>133</v>
       </c>
       <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>174.99529999999999</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>81.5</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>528</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>260</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>148</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>0.8</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>0.7</v>
       </c>
-      <c r="L17" s="10">
+      <c r="M17" s="10">
         <v>19</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>518</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>537</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>0.54545454545454541</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>25</v>
       </c>
@@ -2209,58 +2509,61 @@
         <v>134</v>
       </c>
       <c r="D18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>443.2978</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>78.8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>403</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>289</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>191</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="L18" s="10">
+      <c r="M18" s="10">
         <v>18</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>410</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>402</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>0.41</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>83</v>
       </c>
@@ -2271,58 +2574,61 @@
         <v>135</v>
       </c>
       <c r="D19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" t="s">
         <v>217</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>153.71089999999998</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>52.1</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>446</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>163</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>148</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>2.1</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>0.5</v>
       </c>
-      <c r="L19" s="10">
+      <c r="M19" s="10">
         <v>21</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>7</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="3">
         <v>478</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>417</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Q19" s="3">
         <v>0.43</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R19" s="3">
         <v>2</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S19" s="3">
         <v>5</v>
       </c>
-      <c r="S19" s="3">
+      <c r="T19" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T19" s="3">
+      <c r="U19" s="3">
         <v>10.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>27</v>
       </c>
@@ -2333,58 +2639,61 @@
         <v>136</v>
       </c>
       <c r="D20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>390.35940000000005</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>77.900000000000006</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>493</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>238</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <v>178</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>0.8</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>2.4</v>
       </c>
-      <c r="L20" s="10">
+      <c r="M20" s="10">
         <v>22</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>39</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>494</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>493</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>0.26</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>0.23076923076923078</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>29</v>
       </c>
@@ -2395,58 +2704,61 @@
         <v>137</v>
       </c>
       <c r="D21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>368.91340000000002</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>76</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>607</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>184</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>156</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>0.5</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>2.1</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>24</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>596</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>613</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>0.7</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>0.41176470588235292</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>30</v>
       </c>
@@ -2457,58 +2769,61 @@
         <v>138</v>
       </c>
       <c r="D22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" t="s">
         <v>213</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>628.11419999999998</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>78.2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>414</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>160</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>171</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1.6</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>3.3</v>
       </c>
-      <c r="L22" s="10">
+      <c r="M22" s="10">
         <v>25</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>41</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>407</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>423</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>0.15</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>91</v>
       </c>
@@ -2519,58 +2834,61 @@
         <v>139</v>
       </c>
       <c r="D23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" t="s">
         <v>217</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>156.60239999999999</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>42.7</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>444</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>230</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>159</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1.7</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>1.3</v>
       </c>
-      <c r="L23" s="10">
+      <c r="M23" s="10">
         <v>26</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>485</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>408</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>0.51</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13.5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>32</v>
       </c>
@@ -2581,58 +2899,61 @@
         <v>140</v>
       </c>
       <c r="D24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>316.26390000000004</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>86</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>516</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>191</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>185</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1.9</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>116.2</v>
       </c>
-      <c r="L24" s="10">
+      <c r="M24" s="10">
         <v>28</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>498</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>532</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>0.48</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7.1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>33</v>
       </c>
@@ -2643,58 +2964,61 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" t="s">
         <v>218</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>224.77600000000001</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>76.8</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>614</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>256</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>170</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>1.2</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>1.2</v>
       </c>
-      <c r="L25" s="10">
+      <c r="M25" s="10">
         <v>32</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>43</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25" s="3">
         <v>589</v>
       </c>
-      <c r="O25" s="3">
+      <c r="P25" s="3">
         <v>634</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="3">
         <v>0.6</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
         <v>3</v>
       </c>
-      <c r="R25" s="3">
+      <c r="S25" s="3">
         <v>5</v>
       </c>
-      <c r="S25" s="3">
+      <c r="T25" s="3">
         <v>0.375</v>
       </c>
-      <c r="T25" s="3">
+      <c r="U25" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>34</v>
       </c>
@@ -2705,58 +3029,61 @@
         <v>142</v>
       </c>
       <c r="D26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>247.31370000000001</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>72.2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>536</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>168</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>178</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>0.6</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>0.4</v>
       </c>
-      <c r="L26" s="10">
+      <c r="M26" s="10">
         <v>34</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>520</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>549</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>0.51</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>206</v>
       </c>
@@ -2767,58 +3094,61 @@
         <v>143</v>
       </c>
       <c r="D27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>363.73129999999998</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>54.9</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>559</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>210</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>173</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>0.5</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <v>11.4</v>
       </c>
-      <c r="L27" s="10">
+      <c r="M27" s="10">
         <v>35</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>538</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>577</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>0.37</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>207</v>
       </c>
@@ -2829,58 +3159,61 @@
         <v>144</v>
       </c>
       <c r="D28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" t="s">
         <v>212</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>615.8039</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>77.400000000000006</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>483</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>267</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <v>182</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>29.3</v>
       </c>
-      <c r="L28" s="10">
+      <c r="M28" s="10">
         <v>36</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>24</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
         <v>476</v>
       </c>
-      <c r="O28" s="3">
+      <c r="P28" s="3">
         <v>491</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="3">
         <v>0.24</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="R28" s="3">
         <v>1</v>
       </c>
-      <c r="R28" s="3">
+      <c r="S28" s="3">
         <v>5</v>
       </c>
-      <c r="S28" s="3">
+      <c r="T28" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="T28" s="3">
+      <c r="U28" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>37</v>
       </c>
@@ -2891,58 +3224,61 @@
         <v>145</v>
       </c>
       <c r="D29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>225.98439999999999</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>61.8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>420</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>207</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="5">
         <v>187</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1.7</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>1</v>
       </c>
-      <c r="L29" s="10">
+      <c r="M29" s="10">
         <v>37</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>45</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>406</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>436</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>0.91</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>9</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>0.47368421052631576</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>9.1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>38</v>
       </c>
@@ -2953,58 +3289,61 @@
         <v>146</v>
       </c>
       <c r="D30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" t="s">
         <v>216</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>325.11450000000002</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>67.900000000000006</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>591</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>368</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>192</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>0.8</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <v>12.3</v>
       </c>
-      <c r="L30" s="10">
+      <c r="M30" s="10">
         <v>38</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>46</v>
       </c>
-      <c r="N30" s="3">
+      <c r="O30" s="3">
         <v>595</v>
       </c>
-      <c r="O30" s="3">
+      <c r="P30" s="3">
         <v>584</v>
       </c>
-      <c r="P30" s="3">
+      <c r="Q30" s="3">
         <v>1.22</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="R30" s="3">
         <v>6</v>
       </c>
-      <c r="R30" s="3">
+      <c r="S30" s="3">
         <v>5</v>
       </c>
-      <c r="S30" s="3">
+      <c r="T30" s="3">
         <v>0.54545454545454541</v>
       </c>
-      <c r="T30" s="3">
+      <c r="U30" s="3">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>41</v>
       </c>
@@ -3015,58 +3354,61 @@
         <v>147</v>
       </c>
       <c r="D31" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>511.8365</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>63.8</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>565</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>44</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="5">
         <v>80</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>0.3</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="5">
         <v>5.5</v>
       </c>
-      <c r="L31" s="10">
+      <c r="M31" s="10">
         <v>39</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>47</v>
       </c>
-      <c r="N31" s="3">
+      <c r="O31" s="3">
         <v>548</v>
       </c>
-      <c r="O31" s="3">
+      <c r="P31" s="3">
         <v>578</v>
       </c>
-      <c r="P31" s="3">
+      <c r="Q31" s="3">
         <v>1.24</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="R31" s="3">
         <v>6</v>
       </c>
-      <c r="R31" s="3">
+      <c r="S31" s="3">
         <v>5</v>
       </c>
-      <c r="S31" s="3">
+      <c r="T31" s="3">
         <v>0.54545454545454541</v>
       </c>
-      <c r="T31" s="3">
+      <c r="U31" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>42</v>
       </c>
@@ -3077,58 +3419,61 @@
         <v>148</v>
       </c>
       <c r="D32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>406.72620000000001</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>64.400000000000006</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>630</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>189</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>152</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>0.5</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <v>3.1</v>
       </c>
-      <c r="L32" s="10">
+      <c r="M32" s="10">
         <v>40</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>48</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>632</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>623</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>0.46</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>44</v>
       </c>
@@ -3139,58 +3484,61 @@
         <v>149</v>
       </c>
       <c r="D33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>1006.5875</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>95.9</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>348</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>225</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="5">
         <v>173</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1.4</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <v>12.3</v>
       </c>
-      <c r="L33" s="10">
+      <c r="M33" s="10">
         <v>41</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>49</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>343</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>359</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>0.25</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>0.23076923076923078</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>46</v>
       </c>
@@ -3201,58 +3549,61 @@
         <v>150</v>
       </c>
       <c r="D34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>483.68329999999997</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>81.599999999999994</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <v>557</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>103</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>102</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>0.5</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L34" s="5">
         <v>5.7</v>
       </c>
-      <c r="L34" s="10">
+      <c r="M34" s="10">
         <v>45</v>
       </c>
-      <c r="M34" s="3">
+      <c r="N34" s="3">
         <v>50</v>
       </c>
-      <c r="N34" s="3">
+      <c r="O34" s="3">
         <v>552</v>
       </c>
-      <c r="O34" s="3">
+      <c r="P34" s="3">
         <v>560</v>
       </c>
-      <c r="P34" s="3">
+      <c r="Q34" s="3">
         <v>1.72</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="R34" s="3">
         <v>17</v>
       </c>
-      <c r="R34" s="3">
+      <c r="S34" s="3">
         <v>10</v>
       </c>
-      <c r="S34" s="3">
+      <c r="T34" s="3">
         <v>0.62962962962962965</v>
       </c>
-      <c r="T34" s="3">
+      <c r="U34" s="3">
         <v>3.2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>47</v>
       </c>
@@ -3263,58 +3614,61 @@
         <v>151</v>
       </c>
       <c r="D35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>560.38019999999995</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>92.3</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>631</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>117</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <v>179</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1.6</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <v>13.7</v>
       </c>
-      <c r="L35" s="10">
+      <c r="M35" s="10">
         <v>46</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>620</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>637</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>0.39</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>13</v>
       </c>
@@ -3324,59 +3678,60 @@
       <c r="C36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36"/>
+      <c r="E36" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="5">
         <v>5821.5598</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>72.8</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
         <v>475</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>171</v>
       </c>
-      <c r="I36" s="5">
+      <c r="J36" s="5">
         <v>184</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>2.7</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L36" s="10">
+      <c r="M36" s="10">
         <v>6</v>
       </c>
-      <c r="M36" s="3">
+      <c r="N36" s="3">
         <v>29</v>
       </c>
-      <c r="N36" s="3">
+      <c r="O36" s="3">
         <v>456</v>
       </c>
-      <c r="O36" s="3">
+      <c r="P36" s="3">
         <v>495</v>
       </c>
-      <c r="P36" s="3">
+      <c r="Q36" s="3">
         <v>0.45</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="R36" s="3">
         <v>2</v>
       </c>
-      <c r="R36" s="3">
+      <c r="S36" s="3">
         <v>5</v>
       </c>
-      <c r="S36" s="3">
+      <c r="T36" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T36" s="3">
+      <c r="U36" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>22</v>
       </c>
@@ -3387,58 +3742,61 @@
         <v>153</v>
       </c>
       <c r="D37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37" t="s">
         <v>218</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="5">
         <v>363.32779999999997</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>79.5</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>470</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>273</v>
       </c>
-      <c r="I37" s="5">
+      <c r="J37" s="5">
         <v>171</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>0.4</v>
       </c>
-      <c r="K37" s="5">
+      <c r="L37" s="5">
         <v>2</v>
       </c>
-      <c r="L37" s="10">
+      <c r="M37" s="10">
         <v>47</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>52</v>
       </c>
-      <c r="N37" s="3">
+      <c r="O37" s="3">
         <v>458</v>
       </c>
-      <c r="O37" s="3">
+      <c r="P37" s="3">
         <v>484</v>
       </c>
-      <c r="P37" s="3">
+      <c r="Q37" s="3">
         <v>0.35</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="R37" s="3">
         <v>3</v>
       </c>
-      <c r="R37" s="3">
+      <c r="S37" s="3">
         <v>10</v>
       </c>
-      <c r="S37" s="3">
+      <c r="T37" s="3">
         <v>0.23076923076923078</v>
       </c>
-      <c r="T37" s="3">
+      <c r="U37" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>49</v>
       </c>
@@ -3449,58 +3807,61 @@
         <v>154</v>
       </c>
       <c r="D38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" t="s">
         <v>214</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>398.14100000000002</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>71</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H38" s="3">
         <v>616</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>133</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>171</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <v>0.9</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <v>1</v>
       </c>
-      <c r="L38" s="10">
+      <c r="M38" s="10">
         <v>48</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>53</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O38" s="3">
         <v>606</v>
       </c>
-      <c r="O38" s="3">
+      <c r="P38" s="3">
         <v>620</v>
       </c>
-      <c r="P38" s="3">
+      <c r="Q38" s="3">
         <v>0.63</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="R38" s="3">
         <v>3</v>
       </c>
-      <c r="R38" s="3">
+      <c r="S38" s="3">
         <v>5</v>
       </c>
-      <c r="S38" s="3">
+      <c r="T38" s="3">
         <v>0.375</v>
       </c>
-      <c r="T38" s="3">
+      <c r="U38" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>50</v>
       </c>
@@ -3511,58 +3872,61 @@
         <v>155</v>
       </c>
       <c r="D39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>391.4384</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>79</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <v>465</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>362</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="5">
         <v>160</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K39" s="3">
         <v>0.9</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <v>6.4</v>
       </c>
-      <c r="L39" s="10">
+      <c r="M39" s="10">
         <v>49</v>
       </c>
-      <c r="M39" s="3">
+      <c r="N39" s="3">
         <v>54</v>
       </c>
-      <c r="N39" s="3">
+      <c r="O39" s="3">
         <v>470</v>
       </c>
-      <c r="O39" s="3">
+      <c r="P39" s="3">
         <v>461</v>
       </c>
-      <c r="P39" s="3">
+      <c r="Q39" s="3">
         <v>0.5</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="R39" s="3">
         <v>1</v>
       </c>
-      <c r="R39" s="3">
+      <c r="S39" s="3">
         <v>2</v>
       </c>
-      <c r="S39" s="3">
+      <c r="T39" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T39" s="3">
+      <c r="U39" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>52</v>
       </c>
@@ -3573,58 +3937,61 @@
         <v>156</v>
       </c>
       <c r="D40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="5">
         <v>316.82850000000002</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>72.7</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H40" s="3">
         <v>446</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <v>411</v>
       </c>
-      <c r="I40" s="5">
+      <c r="J40" s="5">
         <v>215</v>
       </c>
-      <c r="J40" s="3">
+      <c r="K40" s="3">
         <v>1.2</v>
       </c>
-      <c r="K40" s="5">
+      <c r="L40" s="5">
         <v>0.8</v>
       </c>
-      <c r="L40" s="10">
+      <c r="M40" s="10">
         <v>50</v>
       </c>
-      <c r="M40" s="3">
+      <c r="N40" s="3">
         <v>55</v>
       </c>
-      <c r="N40" s="3">
+      <c r="O40" s="3">
         <v>451</v>
       </c>
-      <c r="O40" s="3">
+      <c r="P40" s="3">
         <v>444</v>
       </c>
-      <c r="P40" s="3">
+      <c r="Q40" s="3">
         <v>0.87</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="R40" s="3">
         <v>9</v>
       </c>
-      <c r="R40" s="3">
+      <c r="S40" s="3">
         <v>10</v>
       </c>
-      <c r="S40" s="3">
+      <c r="T40" s="3">
         <v>0.47368421052631576</v>
       </c>
-      <c r="T40" s="3">
+      <c r="U40" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>53</v>
       </c>
@@ -3635,58 +4002,61 @@
         <v>157</v>
       </c>
       <c r="D41" t="s">
+        <v>268</v>
+      </c>
+      <c r="E41" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>387.57</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>60.1</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>234</v>
       </c>
-      <c r="I41" s="5">
+      <c r="J41" s="5">
         <v>198</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1.5</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <v>45.1</v>
       </c>
-      <c r="L41" s="10">
+      <c r="M41" s="10">
         <v>51</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>594</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>601</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>0.48</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>54</v>
       </c>
@@ -3697,43 +4067,43 @@
         <v>158</v>
       </c>
       <c r="D42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" t="s">
         <v>216</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5">
         <v>282.4941</v>
       </c>
-      <c r="F42" s="5">
+      <c r="G42" s="5">
         <v>66.8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>605</v>
       </c>
-      <c r="H42" s="5">
+      <c r="I42" s="5">
         <v>414</v>
       </c>
-      <c r="I42" s="5">
+      <c r="J42" s="5">
         <v>168</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>0.9</v>
       </c>
-      <c r="K42" s="5">
+      <c r="L42" s="5">
         <v>0.1</v>
       </c>
-      <c r="L42" s="10">
+      <c r="M42" s="10">
         <v>52</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>57</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>598</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>608</v>
-      </c>
-      <c r="P42" s="3">
-        <v>1</v>
       </c>
       <c r="Q42" s="3">
         <v>1</v>
@@ -3742,13 +4112,16 @@
         <v>1</v>
       </c>
       <c r="S42" s="3">
+        <v>1</v>
+      </c>
+      <c r="T42" s="3">
         <v>0.5</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>56</v>
       </c>
@@ -3759,58 +4132,61 @@
         <v>159</v>
       </c>
       <c r="D43" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" t="s">
         <v>218</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>251.7175</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>68.5</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>566</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>253</v>
       </c>
-      <c r="I43" s="5">
+      <c r="J43" s="5">
         <v>155</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>0.8</v>
       </c>
-      <c r="K43" s="5">
+      <c r="L43" s="5">
         <v>0.6</v>
       </c>
-      <c r="L43" s="10">
+      <c r="M43" s="10">
         <v>53</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>586</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>544</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>0.375</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>57</v>
       </c>
@@ -3821,58 +4197,61 @@
         <v>160</v>
       </c>
       <c r="D44" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" t="s">
         <v>218</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="5">
         <v>414.41849999999999</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>75.8</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>554</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>216</v>
       </c>
-      <c r="I44" s="5">
+      <c r="J44" s="5">
         <v>205</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1.3</v>
       </c>
-      <c r="K44" s="5">
+      <c r="L44" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="L44" s="10">
+      <c r="M44" s="10">
         <v>54</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>540</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>565</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>0.2</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6.1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>208</v>
       </c>
@@ -3883,58 +4262,61 @@
         <v>161</v>
       </c>
       <c r="D45" t="s">
+        <v>272</v>
+      </c>
+      <c r="E45" t="s">
         <v>213</v>
       </c>
-      <c r="E45" s="5">
+      <c r="F45" s="5">
         <v>382.58690000000001</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>77.2</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>323</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>255</v>
       </c>
-      <c r="I45" s="5">
+      <c r="J45" s="5">
         <v>181</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1</v>
       </c>
-      <c r="K45" s="5">
+      <c r="L45" s="5">
         <v>10.1</v>
       </c>
-      <c r="L45" s="10">
+      <c r="M45" s="10">
         <v>55</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>320</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>333</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>0.39</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>58</v>
       </c>
@@ -3945,58 +4327,61 @@
         <v>162</v>
       </c>
       <c r="D46" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" t="s">
         <v>214</v>
       </c>
-      <c r="E46" s="5">
+      <c r="F46" s="5">
         <v>224.1524</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>70.900000000000006</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>522</v>
       </c>
-      <c r="H46" s="5">
+      <c r="I46" s="5">
         <v>195</v>
       </c>
-      <c r="I46" s="5">
+      <c r="J46" s="5">
         <v>133</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1</v>
       </c>
-      <c r="K46" s="5">
+      <c r="L46" s="5">
         <v>0.5</v>
       </c>
-      <c r="L46" s="10">
+      <c r="M46" s="10">
         <v>56</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>60</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>509</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>533</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>0.73</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>0.41176470588235292</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>79</v>
       </c>
@@ -4007,58 +4392,61 @@
         <v>163</v>
       </c>
       <c r="D47" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5">
         <v>201.91810000000001</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G47" s="5">
         <v>47.2</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>453</v>
       </c>
-      <c r="H47" s="5">
+      <c r="I47" s="5">
         <v>275</v>
       </c>
-      <c r="I47" s="5">
+      <c r="J47" s="5">
         <v>136</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K47" s="5">
+      <c r="L47" s="5">
         <v>1.2</v>
       </c>
-      <c r="L47" s="10">
+      <c r="M47" s="10">
         <v>1</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>474</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>435</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1.3</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>0.56521739130434778</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>84</v>
       </c>
@@ -4069,58 +4457,61 @@
         <v>164</v>
       </c>
       <c r="D48" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="5">
+      <c r="F48" s="5">
         <v>213.4743</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>29</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>282</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>135</v>
       </c>
-      <c r="I48" s="5">
+      <c r="J48" s="5">
         <v>234</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2.5</v>
       </c>
-      <c r="K48" s="5">
+      <c r="L48" s="5">
         <v>0.6</v>
       </c>
-      <c r="L48" s="10">
+      <c r="M48" s="10">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>262</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>309</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>0.43</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>80</v>
       </c>
@@ -4131,58 +4522,61 @@
         <v>165</v>
       </c>
       <c r="D49" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" t="s">
         <v>218</v>
       </c>
-      <c r="E49" s="5">
+      <c r="F49" s="5">
         <v>330.38929999999999</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>62.1</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>542</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>255</v>
       </c>
-      <c r="I49" s="5">
+      <c r="J49" s="5">
         <v>183</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1</v>
       </c>
-      <c r="K49" s="5">
+      <c r="L49" s="5">
         <v>34.299999999999997</v>
       </c>
-      <c r="L49" s="10">
+      <c r="M49" s="10">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>567</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>517</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>0.54</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>81</v>
       </c>
@@ -4193,58 +4587,61 @@
         <v>166</v>
       </c>
       <c r="D50" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" t="s">
         <v>212</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F50" s="5">
         <v>202.62779999999998</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>59</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="3">
         <v>413</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I50" s="3">
         <v>253</v>
       </c>
-      <c r="I50" s="5">
+      <c r="J50" s="5">
         <v>195</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50" s="3">
         <v>1.4</v>
       </c>
-      <c r="K50" s="5">
+      <c r="L50" s="5">
         <v>6.5</v>
       </c>
-      <c r="L50" s="10">
+      <c r="M50" s="10">
         <v>11</v>
       </c>
-      <c r="M50" s="3">
+      <c r="N50" s="3">
         <v>3</v>
       </c>
-      <c r="N50" s="3">
+      <c r="O50" s="3">
         <v>424</v>
       </c>
-      <c r="O50" s="3">
+      <c r="P50" s="3">
         <v>406</v>
       </c>
-      <c r="P50" s="3">
+      <c r="Q50" s="3">
         <v>0.62</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="R50" s="3">
         <v>3</v>
       </c>
-      <c r="R50" s="3">
+      <c r="S50" s="3">
         <v>5</v>
       </c>
-      <c r="S50" s="3">
+      <c r="T50" s="3">
         <v>0.375</v>
       </c>
-      <c r="T50" s="3">
+      <c r="U50" s="3">
         <v>9.6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>82</v>
       </c>
@@ -4255,58 +4652,61 @@
         <v>167</v>
       </c>
       <c r="D51" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" t="s">
         <v>217</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="5">
         <v>197.14099999999999</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>45.2</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <v>426</v>
       </c>
-      <c r="H51" s="5">
+      <c r="I51" s="5">
         <v>181</v>
       </c>
-      <c r="I51" s="5">
+      <c r="J51" s="5">
         <v>152</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <v>1.8</v>
       </c>
-      <c r="K51" s="5">
+      <c r="L51" s="5">
         <v>5.3</v>
       </c>
-      <c r="L51" s="10">
+      <c r="M51" s="10">
         <v>16</v>
       </c>
-      <c r="M51" s="3">
+      <c r="N51" s="3">
         <v>5</v>
       </c>
-      <c r="N51" s="3">
+      <c r="O51" s="3">
         <v>492</v>
       </c>
-      <c r="O51" s="3">
+      <c r="P51" s="3">
         <v>367</v>
       </c>
-      <c r="P51" s="3">
+      <c r="Q51" s="3">
         <v>0.48</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="R51" s="3">
         <v>1</v>
       </c>
-      <c r="R51" s="3">
+      <c r="S51" s="3">
         <v>2</v>
       </c>
-      <c r="S51" s="3">
+      <c r="T51" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T51" s="3">
+      <c r="U51" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>26</v>
       </c>
@@ -4317,58 +4717,61 @@
         <v>168</v>
       </c>
       <c r="D52" t="s">
+        <v>279</v>
+      </c>
+      <c r="E52" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>106.75660000000001</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>55.3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>607</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <v>157</v>
       </c>
-      <c r="I52" s="5">
+      <c r="J52" s="5">
         <v>136</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8.6</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <v>1.5</v>
       </c>
-      <c r="L52" s="10">
+      <c r="M52" s="10">
         <v>17</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>695</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>518</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>85</v>
       </c>
@@ -4379,58 +4782,61 @@
         <v>169</v>
       </c>
       <c r="D53" t="s">
+        <v>280</v>
+      </c>
+      <c r="E53" t="s">
         <v>215</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>201.40690000000001</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>45.4</v>
       </c>
-      <c r="G53" s="3">
+      <c r="H53" s="3">
         <v>649</v>
       </c>
-      <c r="H53" s="5">
+      <c r="I53" s="5">
         <v>299</v>
       </c>
-      <c r="I53" s="5">
+      <c r="J53" s="5">
         <v>217</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53" s="3">
         <v>1.8</v>
       </c>
-      <c r="K53" s="5">
+      <c r="L53" s="5">
         <v>0.4</v>
       </c>
-      <c r="L53" s="10">
+      <c r="M53" s="10">
         <v>23</v>
       </c>
-      <c r="M53" s="3">
+      <c r="N53" s="3">
         <v>8</v>
       </c>
-      <c r="N53" s="3">
+      <c r="O53" s="3">
         <v>671</v>
       </c>
-      <c r="O53" s="3">
+      <c r="P53" s="3">
         <v>623</v>
       </c>
-      <c r="P53" s="3">
+      <c r="Q53" s="3">
         <v>0.69</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="R53" s="3">
         <v>7</v>
       </c>
-      <c r="R53" s="3">
+      <c r="S53" s="3">
         <v>10</v>
       </c>
-      <c r="S53" s="3">
+      <c r="T53" s="3">
         <v>0.41176470588235292</v>
       </c>
-      <c r="T53" s="3">
+      <c r="U53" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>86</v>
       </c>
@@ -4441,58 +4847,61 @@
         <v>170</v>
       </c>
       <c r="D54" t="s">
+        <v>281</v>
+      </c>
+      <c r="E54" t="s">
         <v>214</v>
       </c>
-      <c r="E54" s="5">
+      <c r="F54" s="5">
         <v>371.452</v>
       </c>
-      <c r="F54" s="5">
+      <c r="G54" s="5">
         <v>80.400000000000006</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>514</v>
       </c>
-      <c r="H54" s="5">
+      <c r="I54" s="5">
         <v>187</v>
       </c>
-      <c r="I54" s="5">
+      <c r="J54" s="5">
         <v>164</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1.9</v>
       </c>
-      <c r="K54" s="5">
+      <c r="L54" s="5">
         <v>7.7</v>
       </c>
-      <c r="L54" s="10">
+      <c r="M54" s="10">
         <v>27</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>503</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>524</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>0.375</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8.6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>87</v>
       </c>
@@ -4503,58 +4912,61 @@
         <v>171</v>
       </c>
       <c r="D55" t="s">
+        <v>282</v>
+      </c>
+      <c r="E55" t="s">
         <v>214</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="5">
         <v>640.62290000000007</v>
       </c>
-      <c r="F55" s="5">
+      <c r="G55" s="5">
         <v>78.099999999999994</v>
       </c>
-      <c r="G55" s="3">
+      <c r="H55" s="3">
         <v>464</v>
       </c>
-      <c r="H55" s="5">
+      <c r="I55" s="5">
         <v>195</v>
       </c>
-      <c r="I55" s="5">
+      <c r="J55" s="5">
         <v>186</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <v>1.6</v>
       </c>
-      <c r="K55" s="5">
+      <c r="L55" s="5">
         <v>27.1</v>
       </c>
-      <c r="L55" s="10">
+      <c r="M55" s="10">
         <v>33</v>
       </c>
-      <c r="M55" s="3">
+      <c r="N55" s="3">
         <v>11</v>
       </c>
-      <c r="N55" s="3">
+      <c r="O55" s="3">
         <v>469</v>
       </c>
-      <c r="O55" s="3">
+      <c r="P55" s="3">
         <v>461</v>
       </c>
-      <c r="P55" s="3">
+      <c r="Q55" s="3">
         <v>0.38</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="R55" s="3">
         <v>2</v>
       </c>
-      <c r="R55" s="3">
+      <c r="S55" s="3">
         <v>5</v>
       </c>
-      <c r="S55" s="3">
+      <c r="T55" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T55" s="3">
+      <c r="U55" s="3">
         <v>7.8</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>35</v>
       </c>
@@ -4564,44 +4976,44 @@
       <c r="C56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>215</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="5">
         <v>165.43379999999999</v>
       </c>
-      <c r="F56" s="5">
+      <c r="G56" s="5">
         <v>50.9</v>
       </c>
-      <c r="H56" s="5">
+      <c r="I56" s="5">
         <v>219</v>
       </c>
-      <c r="I56" s="5">
+      <c r="J56" s="5">
         <v>103</v>
       </c>
-      <c r="J56" s="3">
+      <c r="K56" s="3">
         <v>0.6</v>
       </c>
-      <c r="K56" s="5">
+      <c r="L56" s="5">
         <v>8</v>
       </c>
-      <c r="P56" s="3">
+      <c r="Q56" s="3">
         <v>0.38</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="R56" s="3">
         <v>2</v>
       </c>
-      <c r="R56" s="3">
+      <c r="S56" s="3">
         <v>5</v>
       </c>
-      <c r="S56" s="3">
+      <c r="T56" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T56" s="3">
+      <c r="U56" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>88</v>
       </c>
@@ -4612,58 +5024,61 @@
         <v>173</v>
       </c>
       <c r="D57" t="s">
+        <v>283</v>
+      </c>
+      <c r="E57" t="s">
         <v>218</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F57" s="5">
         <v>234.16</v>
       </c>
-      <c r="F57" s="5">
+      <c r="G57" s="5">
         <v>66.2</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>638</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>279</v>
       </c>
-      <c r="I57" s="5">
+      <c r="J57" s="5">
         <v>182</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>0.9</v>
       </c>
-      <c r="K57" s="5">
+      <c r="L57" s="5">
         <v>0.8</v>
       </c>
-      <c r="L57" s="10">
+      <c r="M57" s="10">
         <v>42</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>640</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>631</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>0.375</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6.1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>89</v>
       </c>
@@ -4674,58 +5089,61 @@
         <v>174</v>
       </c>
       <c r="D58" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" t="s">
         <v>218</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="5">
         <v>245.21470000000002</v>
       </c>
-      <c r="F58" s="5">
+      <c r="G58" s="5">
         <v>63</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>659</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>345</v>
       </c>
-      <c r="I58" s="5">
+      <c r="J58" s="5">
         <v>169</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>0.9</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L58" s="5">
         <v>0.3</v>
       </c>
-      <c r="L58" s="10">
+      <c r="M58" s="10">
         <v>43</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>690</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>624</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>0.79</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>0.44444444444444442</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>98</v>
       </c>
@@ -4736,58 +5154,61 @@
         <v>203</v>
       </c>
       <c r="D59" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" t="s">
         <v>213</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>903.61109999999996</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>65.599999999999994</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>259</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>248</v>
       </c>
-      <c r="I59" s="5">
+      <c r="J59" s="5">
         <v>217</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2</v>
       </c>
-      <c r="K59" s="5">
+      <c r="L59" s="5">
         <v>47.6</v>
       </c>
-      <c r="L59" s="10">
+      <c r="M59" s="10">
         <v>79</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>274</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>255</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7.1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>90</v>
       </c>
@@ -4798,58 +5219,61 @@
         <v>175</v>
       </c>
       <c r="D60" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" t="s">
         <v>217</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>178.3903</v>
       </c>
-      <c r="F60" s="5">
+      <c r="G60" s="5">
         <v>64.2</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>479</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>327</v>
       </c>
-      <c r="I60" s="5">
+      <c r="J60" s="5">
         <v>160</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2.5</v>
       </c>
-      <c r="K60" s="5">
+      <c r="L60" s="5">
         <v>0.7</v>
       </c>
-      <c r="L60" s="10">
+      <c r="M60" s="10">
         <v>2</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>509</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>452</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>0.53</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11.8</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>92</v>
       </c>
@@ -4860,58 +5284,61 @@
         <v>176</v>
       </c>
       <c r="D61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E61" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="5">
+      <c r="F61" s="5">
         <v>499.77859999999998</v>
       </c>
-      <c r="F61" s="5">
+      <c r="G61" s="5">
         <v>76.8</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>620</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>385</v>
       </c>
-      <c r="I61" s="5">
+      <c r="J61" s="5">
         <v>190</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>0.6</v>
       </c>
-      <c r="K61" s="5">
+      <c r="L61" s="5">
         <v>48.1</v>
       </c>
-      <c r="L61" s="10">
+      <c r="M61" s="10">
         <v>67</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>621</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>615</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>0.33</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>0.23076923076923078</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>93</v>
       </c>
@@ -4922,58 +5349,61 @@
         <v>177</v>
       </c>
       <c r="D62" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" t="s">
         <v>212</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <v>164.68700000000001</v>
       </c>
-      <c r="F62" s="5">
+      <c r="G62" s="5">
         <v>54</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>430</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>144</v>
       </c>
-      <c r="I62" s="5">
+      <c r="J62" s="5">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3.8</v>
       </c>
-      <c r="K62" s="5">
+      <c r="L62" s="5">
         <v>3</v>
       </c>
-      <c r="L62" s="10">
+      <c r="M62" s="10">
         <v>69</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>418</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>445</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>0.09</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18.3</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>95</v>
       </c>
@@ -4984,58 +5414,61 @@
         <v>178</v>
       </c>
       <c r="D63" t="s">
+        <v>289</v>
+      </c>
+      <c r="E63" t="s">
         <v>212</v>
       </c>
-      <c r="E63" s="5">
+      <c r="F63" s="5">
         <v>339.58600000000001</v>
       </c>
-      <c r="F63" s="5">
+      <c r="G63" s="5">
         <v>69.400000000000006</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <v>500</v>
       </c>
-      <c r="H63" s="3">
+      <c r="I63" s="3">
         <v>159</v>
       </c>
-      <c r="I63" s="5">
+      <c r="J63" s="5">
         <v>158</v>
       </c>
-      <c r="J63" s="3">
+      <c r="K63" s="3">
         <v>1.6</v>
       </c>
-      <c r="K63" s="5">
+      <c r="L63" s="5">
         <v>8.4</v>
       </c>
-      <c r="L63" s="10">
+      <c r="M63" s="10">
         <v>30</v>
       </c>
-      <c r="M63" s="3">
+      <c r="N63" s="3">
         <v>19</v>
       </c>
-      <c r="N63" s="3">
+      <c r="O63" s="3">
         <v>502</v>
       </c>
-      <c r="O63" s="3">
+      <c r="P63" s="3">
         <v>497</v>
       </c>
-      <c r="P63" s="3">
+      <c r="Q63" s="3">
         <v>0.83</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="R63" s="3">
         <v>4</v>
       </c>
-      <c r="R63" s="3">
+      <c r="S63" s="3">
         <v>5</v>
       </c>
-      <c r="S63" s="3">
+      <c r="T63" s="3">
         <v>0.44444444444444442</v>
       </c>
-      <c r="T63" s="3">
+      <c r="U63" s="3">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>60</v>
       </c>
@@ -5046,58 +5479,61 @@
         <v>179</v>
       </c>
       <c r="D64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E64" t="s">
         <v>215</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F64" s="5">
         <v>300.18619999999999</v>
       </c>
-      <c r="F64" s="5">
+      <c r="G64" s="5">
         <v>68</v>
       </c>
-      <c r="G64" s="3">
+      <c r="H64" s="3">
         <v>501</v>
       </c>
-      <c r="H64" s="5">
+      <c r="I64" s="5">
         <v>319</v>
       </c>
-      <c r="I64" s="5">
+      <c r="J64" s="5">
         <v>175</v>
       </c>
-      <c r="J64" s="3">
+      <c r="K64" s="3">
         <v>0.8</v>
       </c>
-      <c r="K64" s="5">
+      <c r="L64" s="5">
         <v>11.2</v>
       </c>
-      <c r="L64" s="10">
+      <c r="M64" s="10">
         <v>57</v>
       </c>
-      <c r="M64" s="3">
+      <c r="N64" s="3">
         <v>61</v>
       </c>
-      <c r="N64" s="3">
+      <c r="O64" s="3">
         <v>493</v>
       </c>
-      <c r="O64" s="3">
+      <c r="P64" s="3">
         <v>507</v>
       </c>
-      <c r="P64" s="3">
+      <c r="Q64" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="R64" s="3">
         <v>3</v>
       </c>
-      <c r="R64" s="3">
+      <c r="S64" s="3">
         <v>5</v>
       </c>
-      <c r="S64" s="3">
+      <c r="T64" s="3">
         <v>0.375</v>
       </c>
-      <c r="T64" s="3">
+      <c r="U64" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>61</v>
       </c>
@@ -5108,58 +5544,61 @@
         <v>180</v>
       </c>
       <c r="D65" t="s">
+        <v>291</v>
+      </c>
+      <c r="E65" t="s">
         <v>216</v>
       </c>
-      <c r="E65" s="5">
+      <c r="F65" s="5">
         <v>298.62400000000002</v>
       </c>
-      <c r="F65" s="5">
+      <c r="G65" s="5">
         <v>71.900000000000006</v>
       </c>
-      <c r="G65" s="3">
+      <c r="H65" s="3">
         <v>581</v>
       </c>
-      <c r="H65" s="5">
+      <c r="I65" s="5">
         <v>291</v>
       </c>
-      <c r="I65" s="5">
+      <c r="J65" s="5">
         <v>188</v>
       </c>
-      <c r="J65" s="3">
+      <c r="K65" s="3">
         <v>0.8</v>
       </c>
-      <c r="K65" s="5">
+      <c r="L65" s="5">
         <v>1.5</v>
       </c>
-      <c r="L65" s="10">
+      <c r="M65" s="10">
         <v>58</v>
       </c>
-      <c r="M65" s="3">
+      <c r="N65" s="3">
         <v>62</v>
       </c>
-      <c r="N65" s="3">
+      <c r="O65" s="3">
         <v>563</v>
       </c>
-      <c r="O65" s="3">
+      <c r="P65" s="3">
         <v>594</v>
       </c>
-      <c r="P65" s="3">
+      <c r="Q65" s="3">
         <v>0.68</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="R65" s="3">
         <v>7</v>
       </c>
-      <c r="R65" s="3">
+      <c r="S65" s="3">
         <v>10</v>
       </c>
-      <c r="S65" s="3">
+      <c r="T65" s="3">
         <v>0.41176470588235292</v>
       </c>
-      <c r="T65" s="3">
+      <c r="U65" s="3">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>36</v>
       </c>
@@ -5170,58 +5609,61 @@
         <v>181</v>
       </c>
       <c r="D66" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="5">
+      <c r="F66" s="5">
         <v>397.85720000000003</v>
       </c>
-      <c r="F66" s="5">
+      <c r="G66" s="5">
         <v>80</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>627</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>313</v>
       </c>
-      <c r="I66" s="5">
+      <c r="J66" s="5">
         <v>189</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1</v>
       </c>
-      <c r="K66" s="5">
+      <c r="L66" s="5">
         <v>18.3</v>
       </c>
-      <c r="L66" s="10">
+      <c r="M66" s="10">
         <v>60</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>613</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>636</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>0.49</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>63</v>
       </c>
@@ -5232,58 +5674,61 @@
         <v>182</v>
       </c>
       <c r="D67" t="s">
+        <v>293</v>
+      </c>
+      <c r="E67" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="5">
+      <c r="F67" s="5">
         <v>263.77359999999999</v>
       </c>
-      <c r="F67" s="5">
+      <c r="G67" s="5">
         <v>75.7</v>
       </c>
-      <c r="G67" s="3">
+      <c r="H67" s="3">
         <v>488</v>
       </c>
-      <c r="H67" s="3">
+      <c r="I67" s="3">
         <v>309</v>
       </c>
-      <c r="I67" s="5">
+      <c r="J67" s="5">
         <v>180</v>
       </c>
-      <c r="J67" s="3">
+      <c r="K67" s="3">
         <v>0.9</v>
       </c>
-      <c r="K67" s="5">
+      <c r="L67" s="5">
         <v>7.6</v>
       </c>
-      <c r="L67" s="10">
+      <c r="M67" s="10">
         <v>61</v>
       </c>
-      <c r="M67" s="3">
+      <c r="N67" s="3">
         <v>64</v>
       </c>
-      <c r="N67" s="3">
+      <c r="O67" s="3">
         <v>473</v>
       </c>
-      <c r="O67" s="3">
+      <c r="P67" s="3">
         <v>503</v>
       </c>
-      <c r="P67" s="3">
+      <c r="Q67" s="3">
         <v>0.59</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="R67" s="3">
         <v>3</v>
       </c>
-      <c r="R67" s="3">
+      <c r="S67" s="3">
         <v>5</v>
       </c>
-      <c r="S67" s="3">
+      <c r="T67" s="3">
         <v>0.375</v>
       </c>
-      <c r="T67" s="3">
+      <c r="U67" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>64</v>
       </c>
@@ -5294,58 +5739,61 @@
         <v>183</v>
       </c>
       <c r="D68" t="s">
+        <v>294</v>
+      </c>
+      <c r="E68" t="s">
         <v>213</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5">
         <v>1575.6426000000001</v>
       </c>
-      <c r="F68" s="5">
+      <c r="G68" s="5">
         <v>82</v>
       </c>
-      <c r="G68" s="3">
+      <c r="H68" s="3">
         <v>351</v>
       </c>
-      <c r="H68" s="3">
+      <c r="I68" s="3">
         <v>144</v>
       </c>
-      <c r="I68" s="5">
+      <c r="J68" s="5">
         <v>178</v>
       </c>
-      <c r="J68" s="3">
+      <c r="K68" s="3">
         <v>0.6</v>
       </c>
-      <c r="K68" s="5">
+      <c r="L68" s="5">
         <v>10.4</v>
       </c>
-      <c r="L68" s="10">
+      <c r="M68" s="10">
         <v>59</v>
       </c>
-      <c r="M68" s="3">
+      <c r="N68" s="3">
         <v>65</v>
       </c>
-      <c r="N68" s="3">
+      <c r="O68" s="3">
         <v>346</v>
       </c>
-      <c r="O68" s="3">
+      <c r="P68" s="3">
         <v>362</v>
       </c>
-      <c r="P68" s="3">
+      <c r="Q68" s="3">
         <v>0.18</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="R68" s="3">
         <v>1</v>
       </c>
-      <c r="R68" s="3">
+      <c r="S68" s="3">
         <v>5</v>
       </c>
-      <c r="S68" s="3">
+      <c r="T68" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="T68" s="3">
+      <c r="U68" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>65</v>
       </c>
@@ -5356,58 +5804,61 @@
         <v>184</v>
       </c>
       <c r="D69" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="5">
+      <c r="F69" s="5">
         <v>456.86020000000002</v>
       </c>
-      <c r="F69" s="5">
+      <c r="G69" s="5">
         <v>84.8</v>
       </c>
-      <c r="G69" s="3">
+      <c r="H69" s="3">
         <v>473</v>
       </c>
-      <c r="H69" s="3">
+      <c r="I69" s="3">
         <v>289</v>
       </c>
-      <c r="I69" s="5">
+      <c r="J69" s="5">
         <v>212</v>
       </c>
-      <c r="J69" s="3">
+      <c r="K69" s="3">
         <v>1.2</v>
       </c>
-      <c r="K69" s="5">
+      <c r="L69" s="5">
         <v>28.3</v>
       </c>
-      <c r="L69" s="10">
+      <c r="M69" s="10">
         <v>65</v>
       </c>
-      <c r="M69" s="3">
+      <c r="N69" s="3">
         <v>66</v>
       </c>
-      <c r="N69" s="3">
+      <c r="O69" s="3">
         <v>455</v>
       </c>
-      <c r="O69" s="3">
+      <c r="P69" s="3">
         <v>491</v>
       </c>
-      <c r="P69" s="3">
+      <c r="Q69" s="3">
         <v>0.37</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="R69" s="3">
         <v>2</v>
       </c>
-      <c r="R69" s="3">
+      <c r="S69" s="3">
         <v>5</v>
       </c>
-      <c r="S69" s="3">
+      <c r="T69" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T69" s="3">
+      <c r="U69" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>66</v>
       </c>
@@ -5418,58 +5869,61 @@
         <v>185</v>
       </c>
       <c r="D70" t="s">
+        <v>296</v>
+      </c>
+      <c r="E70" t="s">
         <v>216</v>
       </c>
-      <c r="E70" s="5">
+      <c r="F70" s="5">
         <v>274.4153</v>
       </c>
-      <c r="F70" s="5">
+      <c r="G70" s="5">
         <v>71.900000000000006</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>518</v>
       </c>
-      <c r="H70" s="5">
+      <c r="I70" s="5">
         <v>229</v>
       </c>
-      <c r="I70" s="5">
+      <c r="J70" s="5">
         <v>169</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K70" s="5">
+      <c r="L70" s="5">
         <v>1.2</v>
       </c>
-      <c r="L70" s="10">
+      <c r="M70" s="10">
         <v>62</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>67</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>534</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>0.79</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>4</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>5</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>0.44444444444444442</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>209</v>
       </c>
@@ -5480,58 +5934,61 @@
         <v>186</v>
       </c>
       <c r="D71" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" t="s">
         <v>217</v>
       </c>
-      <c r="E71" s="5">
+      <c r="F71" s="5">
         <v>232.58199999999999</v>
       </c>
-      <c r="F71" s="5">
+      <c r="G71" s="5">
         <v>58.4</v>
       </c>
-      <c r="G71" s="3">
+      <c r="H71" s="3">
         <v>531</v>
       </c>
-      <c r="H71" s="5">
+      <c r="I71" s="5">
         <v>258</v>
       </c>
-      <c r="I71" s="5">
+      <c r="J71" s="5">
         <v>179</v>
       </c>
-      <c r="J71" s="3">
+      <c r="K71" s="3">
         <v>0.9</v>
       </c>
-      <c r="K71" s="5">
+      <c r="L71" s="5">
         <v>3.9</v>
       </c>
-      <c r="L71" s="10">
+      <c r="M71" s="10">
         <v>64</v>
       </c>
-      <c r="M71" s="3">
+      <c r="N71" s="3">
         <v>26</v>
       </c>
-      <c r="N71" s="3">
+      <c r="O71" s="3">
         <v>529</v>
       </c>
-      <c r="O71" s="3">
+      <c r="P71" s="3">
         <v>533</v>
       </c>
-      <c r="P71" s="3">
+      <c r="Q71" s="3">
         <v>0.84</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="R71" s="3">
         <v>4</v>
       </c>
-      <c r="R71" s="3">
+      <c r="S71" s="3">
         <v>5</v>
       </c>
-      <c r="S71" s="3">
+      <c r="T71" s="3">
         <v>0.44444444444444442</v>
       </c>
-      <c r="T71" s="3">
+      <c r="U71" s="3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>68</v>
       </c>
@@ -5542,58 +5999,61 @@
         <v>187</v>
       </c>
       <c r="D72" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" t="s">
         <v>216</v>
       </c>
-      <c r="E72" s="5">
+      <c r="F72" s="5">
         <v>297.93369999999999</v>
       </c>
-      <c r="F72" s="5">
+      <c r="G72" s="5">
         <v>60.9</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>584</v>
       </c>
-      <c r="H72" s="5">
+      <c r="I72" s="5">
         <v>276</v>
       </c>
-      <c r="I72" s="5">
+      <c r="J72" s="5">
         <v>178</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>0.8</v>
       </c>
-      <c r="K72" s="5">
+      <c r="L72" s="5">
         <v>0.2</v>
       </c>
-      <c r="L72" s="10">
+      <c r="M72" s="10">
         <v>66</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>68</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>577</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>587</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>0.6</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>0.375</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>28</v>
       </c>
@@ -5604,58 +6064,61 @@
         <v>188</v>
       </c>
       <c r="D73" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="5">
+      <c r="F73" s="5">
         <v>276.25540000000001</v>
       </c>
-      <c r="F73" s="5">
+      <c r="G73" s="5">
         <v>75.8</v>
       </c>
-      <c r="G73" s="3">
+      <c r="H73" s="3">
         <v>514</v>
       </c>
-      <c r="H73" s="5">
+      <c r="I73" s="5">
         <v>195</v>
       </c>
-      <c r="I73" s="5">
+      <c r="J73" s="5">
         <v>161</v>
       </c>
-      <c r="J73" s="3">
+      <c r="K73" s="3">
         <v>0.8</v>
       </c>
-      <c r="K73" s="5">
+      <c r="L73" s="5">
         <v>1.2</v>
       </c>
-      <c r="L73" s="10">
+      <c r="M73" s="10">
         <v>70</v>
       </c>
-      <c r="M73" s="3">
+      <c r="N73" s="3">
         <v>69</v>
       </c>
-      <c r="N73" s="3">
+      <c r="O73" s="3">
         <v>499</v>
       </c>
-      <c r="O73" s="3">
+      <c r="P73" s="3">
         <v>528</v>
       </c>
-      <c r="P73" s="3">
+      <c r="Q73" s="3">
         <v>0.65</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="R73" s="3">
         <v>3</v>
       </c>
-      <c r="R73" s="3">
+      <c r="S73" s="3">
         <v>5</v>
       </c>
-      <c r="S73" s="3">
+      <c r="T73" s="3">
         <v>0.375</v>
       </c>
-      <c r="T73" s="3">
+      <c r="U73" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>69</v>
       </c>
@@ -5666,58 +6129,61 @@
         <v>189</v>
       </c>
       <c r="D74" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" t="s">
         <v>212</v>
       </c>
-      <c r="E74" s="5">
+      <c r="F74" s="5">
         <v>451.82390000000004</v>
       </c>
-      <c r="F74" s="5">
+      <c r="G74" s="5">
         <v>72.400000000000006</v>
       </c>
-      <c r="G74" s="3">
+      <c r="H74" s="3">
         <v>553</v>
       </c>
-      <c r="H74" s="3">
+      <c r="I74" s="3">
         <v>549</v>
       </c>
-      <c r="I74" s="5">
+      <c r="J74" s="5">
         <v>187</v>
       </c>
-      <c r="J74" s="3">
+      <c r="K74" s="3">
         <v>1.5</v>
       </c>
-      <c r="K74" s="5">
+      <c r="L74" s="5">
         <v>12</v>
       </c>
-      <c r="L74" s="10">
+      <c r="M74" s="10">
         <v>68</v>
       </c>
-      <c r="M74" s="3">
+      <c r="N74" s="3">
         <v>70</v>
       </c>
-      <c r="N74" s="3">
+      <c r="O74" s="3">
         <v>533</v>
       </c>
-      <c r="O74" s="3">
+      <c r="P74" s="3">
         <v>570</v>
       </c>
-      <c r="P74" s="3">
+      <c r="Q74" s="3">
         <v>0.74</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="R74" s="3">
         <v>7</v>
       </c>
-      <c r="R74" s="3">
+      <c r="S74" s="3">
         <v>10</v>
       </c>
-      <c r="S74" s="3">
+      <c r="T74" s="3">
         <v>0.41176470588235292</v>
       </c>
-      <c r="T74" s="3">
+      <c r="U74" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>70</v>
       </c>
@@ -5728,58 +6194,61 @@
         <v>190</v>
       </c>
       <c r="D75" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" t="s">
         <v>216</v>
       </c>
-      <c r="E75" s="5">
+      <c r="F75" s="5">
         <v>344.48740000000004</v>
       </c>
-      <c r="F75" s="5">
+      <c r="G75" s="5">
         <v>74.8</v>
       </c>
-      <c r="G75" s="3">
+      <c r="H75" s="3">
         <v>430</v>
       </c>
-      <c r="H75" s="5">
+      <c r="I75" s="5">
         <v>218</v>
       </c>
-      <c r="I75" s="5">
+      <c r="J75" s="5">
         <v>141</v>
       </c>
-      <c r="J75" s="3">
+      <c r="K75" s="3">
         <v>0.5</v>
       </c>
-      <c r="K75" s="5">
+      <c r="L75" s="5">
         <v>2.8</v>
       </c>
-      <c r="L75" s="10">
+      <c r="M75" s="10">
         <v>69</v>
       </c>
-      <c r="M75" s="3">
+      <c r="N75" s="3">
         <v>71</v>
       </c>
-      <c r="N75" s="3">
+      <c r="O75" s="3">
         <v>418</v>
       </c>
-      <c r="O75" s="3">
+      <c r="P75" s="3">
         <v>445</v>
       </c>
-      <c r="P75" s="3">
+      <c r="Q75" s="3">
         <v>0.5</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="R75" s="3">
         <v>1</v>
       </c>
-      <c r="R75" s="3">
+      <c r="S75" s="3">
         <v>2</v>
       </c>
-      <c r="S75" s="3">
+      <c r="T75" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T75" s="3">
+      <c r="U75" s="3">
         <v>3.9</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>71</v>
       </c>
@@ -5790,58 +6259,61 @@
         <v>191</v>
       </c>
       <c r="D76" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" t="s">
         <v>219</v>
       </c>
-      <c r="E76" s="5">
+      <c r="F76" s="5">
         <v>632.24559999999997</v>
       </c>
-      <c r="F76" s="5">
+      <c r="G76" s="5">
         <v>66.599999999999994</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>522</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>388</v>
       </c>
-      <c r="I76" s="5">
+      <c r="J76" s="5">
         <v>173</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>0.6</v>
       </c>
-      <c r="K76" s="5">
+      <c r="L76" s="5">
         <v>7.7</v>
       </c>
-      <c r="L76" s="10">
+      <c r="M76" s="10">
         <v>71</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>532</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>512</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>0.96</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1</v>
       </c>
       <c r="R76" s="3">
         <v>1</v>
       </c>
       <c r="S76" s="3">
+        <v>1</v>
+      </c>
+      <c r="T76" s="3">
         <v>0.5</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>94</v>
       </c>
@@ -5852,58 +6324,61 @@
         <v>192</v>
       </c>
       <c r="D77" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" t="s">
         <v>218</v>
       </c>
-      <c r="E77" s="5">
+      <c r="F77" s="5">
         <v>356.04270000000002</v>
       </c>
-      <c r="F77" s="5">
+      <c r="G77" s="5">
         <v>65.8</v>
       </c>
-      <c r="G77" s="3">
+      <c r="H77" s="3">
         <v>519</v>
       </c>
-      <c r="H77" s="3">
+      <c r="I77" s="3">
         <v>302</v>
       </c>
-      <c r="I77" s="5">
+      <c r="J77" s="5">
         <v>190</v>
       </c>
-      <c r="J77" s="3">
+      <c r="K77" s="3">
         <v>0.9</v>
       </c>
-      <c r="K77" s="5">
+      <c r="L77" s="5">
         <v>11.2</v>
       </c>
-      <c r="L77" s="10">
+      <c r="M77" s="10">
         <v>73</v>
       </c>
-      <c r="M77" s="3">
+      <c r="N77" s="3">
         <v>18</v>
       </c>
-      <c r="N77" s="3">
+      <c r="O77" s="3">
         <v>510</v>
       </c>
-      <c r="O77" s="3">
+      <c r="P77" s="3">
         <v>526</v>
       </c>
-      <c r="P77" s="3">
+      <c r="Q77" s="3">
         <v>0.49</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="R77" s="3">
         <v>1</v>
       </c>
-      <c r="R77" s="3">
+      <c r="S77" s="3">
         <v>2</v>
       </c>
-      <c r="S77" s="3">
+      <c r="T77" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T77" s="3">
+      <c r="U77" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>73</v>
       </c>
@@ -5914,58 +6389,61 @@
         <v>193</v>
       </c>
       <c r="D78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" t="s">
         <v>218</v>
       </c>
-      <c r="E78" s="5">
+      <c r="F78" s="5">
         <v>261.50029999999998</v>
       </c>
-      <c r="F78" s="5">
+      <c r="G78" s="5">
         <v>75.3</v>
       </c>
-      <c r="G78" s="3">
+      <c r="H78" s="3">
         <v>513</v>
       </c>
-      <c r="H78" s="3">
+      <c r="I78" s="3">
         <v>296</v>
       </c>
-      <c r="I78" s="5">
+      <c r="J78" s="5">
         <v>155</v>
       </c>
-      <c r="J78" s="3">
+      <c r="K78" s="3">
         <v>0.5</v>
       </c>
-      <c r="K78" s="5">
+      <c r="L78" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L78" s="10">
+      <c r="M78" s="10">
         <v>74</v>
       </c>
-      <c r="M78" s="3">
+      <c r="N78" s="3">
         <v>73</v>
       </c>
-      <c r="N78" s="3">
+      <c r="O78" s="3">
         <v>519</v>
       </c>
-      <c r="O78" s="3">
+      <c r="P78" s="3">
         <v>507</v>
       </c>
-      <c r="P78" s="3">
+      <c r="Q78" s="3">
         <v>0.93</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="R78" s="3">
         <v>9</v>
       </c>
-      <c r="R78" s="3">
+      <c r="S78" s="3">
         <v>10</v>
       </c>
-      <c r="S78" s="3">
+      <c r="T78" s="3">
         <v>0.47368421052631576</v>
       </c>
-      <c r="T78" s="3">
+      <c r="U78" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>210</v>
       </c>
@@ -5976,58 +6454,61 @@
         <v>194</v>
       </c>
       <c r="D79" t="s">
+        <v>305</v>
+      </c>
+      <c r="E79" t="s">
         <v>213</v>
       </c>
-      <c r="E79" s="5">
+      <c r="F79" s="5">
         <v>478.0308</v>
       </c>
-      <c r="F79" s="5">
+      <c r="G79" s="5">
         <v>82.1</v>
       </c>
-      <c r="G79" s="3">
+      <c r="H79" s="3">
         <v>453</v>
       </c>
-      <c r="H79" s="3">
+      <c r="I79" s="3">
         <v>359</v>
       </c>
-      <c r="I79" s="5">
+      <c r="J79" s="5">
         <v>196</v>
       </c>
-      <c r="J79" s="3">
+      <c r="K79" s="3">
         <v>0.9</v>
       </c>
-      <c r="K79" s="5">
+      <c r="L79" s="5">
         <v>10.6</v>
       </c>
-      <c r="L79" s="10">
+      <c r="M79" s="10">
         <v>29</v>
       </c>
-      <c r="M79" s="3">
+      <c r="N79" s="3">
         <v>27</v>
       </c>
-      <c r="N79" s="3">
+      <c r="O79" s="3">
         <v>446</v>
       </c>
-      <c r="O79" s="3">
+      <c r="P79" s="3">
         <v>462</v>
       </c>
-      <c r="P79" s="3">
+      <c r="Q79" s="3">
         <v>0.5</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="R79" s="3">
         <v>1</v>
       </c>
-      <c r="R79" s="3">
+      <c r="S79" s="3">
         <v>2</v>
       </c>
-      <c r="S79" s="3">
+      <c r="T79" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="T79" s="3">
+      <c r="U79" s="3">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>72</v>
       </c>
@@ -6038,58 +6519,61 @@
         <v>195</v>
       </c>
       <c r="D80" t="s">
+        <v>306</v>
+      </c>
+      <c r="E80" t="s">
         <v>219</v>
       </c>
-      <c r="E80" s="5">
+      <c r="F80" s="5">
         <v>1852.3183000000001</v>
       </c>
-      <c r="F80" s="5">
+      <c r="G80" s="5">
         <v>92.3</v>
       </c>
-      <c r="G80" s="3">
+      <c r="H80" s="3">
         <v>516</v>
       </c>
-      <c r="H80" s="3">
+      <c r="I80" s="3">
         <v>149</v>
       </c>
-      <c r="I80" s="5">
+      <c r="J80" s="5">
         <v>133</v>
       </c>
-      <c r="J80" s="3">
+      <c r="K80" s="3">
         <v>0.5</v>
       </c>
-      <c r="K80" s="5">
+      <c r="L80" s="5">
         <v>228.8</v>
       </c>
-      <c r="L80" s="10">
+      <c r="M80" s="10">
         <v>31</v>
       </c>
-      <c r="M80" s="3">
+      <c r="N80" s="3">
         <v>86</v>
       </c>
-      <c r="N80" s="3">
+      <c r="O80" s="3">
         <v>509</v>
       </c>
-      <c r="O80" s="3">
+      <c r="P80" s="3">
         <v>522</v>
       </c>
-      <c r="P80" s="3">
+      <c r="Q80" s="3">
         <v>0.32</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="R80" s="3">
         <v>3</v>
       </c>
-      <c r="R80" s="3">
+      <c r="S80" s="3">
         <v>10</v>
       </c>
-      <c r="S80" s="3">
+      <c r="T80" s="3">
         <v>0.23076923076923078</v>
       </c>
-      <c r="T80" s="3">
+      <c r="U80" s="3">
         <v>3.3</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>75</v>
       </c>
@@ -6100,58 +6584,61 @@
         <v>196</v>
       </c>
       <c r="D81" t="s">
+        <v>307</v>
+      </c>
+      <c r="E81" t="s">
         <v>219</v>
       </c>
-      <c r="E81" s="5">
+      <c r="F81" s="5">
         <v>360.04809999999998</v>
       </c>
-      <c r="F81" s="5">
+      <c r="G81" s="5">
         <v>82.7</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>523</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>278</v>
       </c>
-      <c r="I81" s="5">
+      <c r="J81" s="5">
         <v>185</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1.4</v>
       </c>
-      <c r="K81" s="5">
+      <c r="L81" s="5">
         <v>19.399999999999999</v>
       </c>
-      <c r="L81" s="10">
+      <c r="M81" s="10">
         <v>13</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>515</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>529</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>0.41</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>0.2857142857142857</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>96</v>
       </c>
@@ -6162,58 +6649,61 @@
         <v>197</v>
       </c>
       <c r="D82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" t="s">
         <v>217</v>
       </c>
-      <c r="E82" s="5">
+      <c r="F82" s="5">
         <v>118.6964</v>
       </c>
-      <c r="F82" s="5">
+      <c r="G82" s="5">
         <v>34.9</v>
       </c>
-      <c r="G82" s="3">
+      <c r="H82" s="3">
         <v>289</v>
       </c>
-      <c r="H82" s="5">
+      <c r="I82" s="5">
         <v>240</v>
       </c>
-      <c r="I82" s="5">
+      <c r="J82" s="5">
         <v>210</v>
       </c>
-      <c r="J82" s="3">
+      <c r="K82" s="3">
         <v>9</v>
       </c>
-      <c r="K82" s="5">
+      <c r="L82" s="5">
         <v>3.4</v>
       </c>
-      <c r="L82" s="10">
+      <c r="M82" s="10">
         <v>12</v>
       </c>
-      <c r="M82" s="3">
+      <c r="N82" s="3">
         <v>20</v>
       </c>
-      <c r="N82" s="3">
+      <c r="O82" s="3">
         <v>364</v>
       </c>
-      <c r="O82" s="3">
+      <c r="P82" s="3">
         <v>227</v>
       </c>
-      <c r="P82" s="3">
+      <c r="Q82" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="R82" s="3">
         <v>1</v>
       </c>
-      <c r="R82" s="3">
+      <c r="S82" s="3">
         <v>10</v>
       </c>
-      <c r="S82" s="3">
+      <c r="T82" s="3">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="T82" s="3">
+      <c r="U82" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>97</v>
       </c>
@@ -6224,58 +6714,61 @@
         <v>198</v>
       </c>
       <c r="D83" t="s">
+        <v>309</v>
+      </c>
+      <c r="E83" t="s">
         <v>218</v>
       </c>
-      <c r="E83" s="5">
+      <c r="F83" s="5">
         <v>211.58760000000001</v>
       </c>
-      <c r="F83" s="5">
+      <c r="G83" s="5">
         <v>62.5</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>660</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>288</v>
       </c>
-      <c r="I83" s="5">
+      <c r="J83" s="5">
         <v>172</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>0.7</v>
       </c>
-      <c r="K83" s="5">
+      <c r="L83" s="5">
         <v>0.5</v>
       </c>
-      <c r="L83" s="10">
+      <c r="M83" s="10">
         <v>15</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>661</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>652</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>0.68</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>0.41176470588235292</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>77</v>
       </c>
@@ -6286,58 +6779,61 @@
         <v>199</v>
       </c>
       <c r="D84" t="s">
+        <v>310</v>
+      </c>
+      <c r="E84" t="s">
         <v>213</v>
       </c>
-      <c r="E84" s="5">
+      <c r="F84" s="5">
         <v>1323.2012999999999</v>
       </c>
-      <c r="F84" s="5">
+      <c r="G84" s="5">
         <v>70.5</v>
       </c>
-      <c r="G84" s="3">
+      <c r="H84" s="3">
         <v>289</v>
       </c>
-      <c r="H84" s="3">
+      <c r="I84" s="3">
         <v>35</v>
       </c>
-      <c r="I84" s="5">
+      <c r="J84" s="5">
         <v>148</v>
       </c>
-      <c r="J84" s="3">
+      <c r="K84" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K84" s="5">
+      <c r="L84" s="5">
         <v>6.3</v>
       </c>
-      <c r="L84" s="10">
+      <c r="M84" s="10">
         <v>14</v>
       </c>
-      <c r="M84" s="3">
+      <c r="N84" s="3">
         <v>87</v>
       </c>
-      <c r="N84" s="3">
+      <c r="O84" s="3">
         <v>293</v>
       </c>
-      <c r="O84" s="3">
+      <c r="P84" s="3">
         <v>294</v>
       </c>
-      <c r="P84" s="3">
+      <c r="Q84" s="3">
         <v>0.23</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="R84" s="3">
         <v>1</v>
       </c>
-      <c r="R84" s="3">
+      <c r="S84" s="3">
         <v>5</v>
       </c>
-      <c r="S84" s="3">
+      <c r="T84" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="T84" s="3">
+      <c r="U84" s="3">
         <v>2.9</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>74</v>
       </c>
@@ -6348,58 +6844,61 @@
         <v>200</v>
       </c>
       <c r="D85" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="5">
+      <c r="F85" s="5">
         <v>3670.2575999999999</v>
       </c>
-      <c r="F85" s="5">
+      <c r="G85" s="5">
         <v>83.8</v>
       </c>
-      <c r="G85" s="3">
+      <c r="H85" s="3">
         <v>501</v>
       </c>
-      <c r="H85" s="3">
+      <c r="I85" s="3">
         <v>18</v>
       </c>
-      <c r="I85" s="5">
+      <c r="J85" s="5">
         <v>135</v>
       </c>
-      <c r="J85" s="3">
+      <c r="K85" s="3">
         <v>0.7</v>
       </c>
-      <c r="K85" s="5">
+      <c r="L85" s="5">
         <v>82.9</v>
       </c>
-      <c r="L85" s="10">
+      <c r="M85" s="10">
         <v>80</v>
       </c>
-      <c r="M85" s="3">
+      <c r="N85" s="3">
         <v>89</v>
       </c>
-      <c r="N85" s="3">
+      <c r="O85" s="3">
         <v>496</v>
       </c>
-      <c r="O85" s="3">
+      <c r="P85" s="3">
         <v>506</v>
       </c>
-      <c r="P85" s="3">
+      <c r="Q85" s="3">
         <v>0.99</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>1</v>
       </c>
       <c r="R85" s="3">
         <v>1</v>
       </c>
       <c r="S85" s="3">
+        <v>1</v>
+      </c>
+      <c r="T85" s="3">
         <v>0.5</v>
       </c>
-      <c r="T85" s="3">
+      <c r="U85" s="3">
         <v>3.2</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <v>78</v>
       </c>
@@ -6410,65 +6909,68 @@
         <v>201</v>
       </c>
       <c r="D86" t="s">
+        <v>312</v>
+      </c>
+      <c r="E86" t="s">
         <v>216</v>
       </c>
-      <c r="E86" s="5">
+      <c r="F86" s="5">
         <v>369.53990000000005</v>
       </c>
-      <c r="F86" s="5">
+      <c r="G86" s="5">
         <v>81.8</v>
       </c>
-      <c r="G86" s="3">
+      <c r="H86" s="3">
         <v>537</v>
       </c>
-      <c r="H86" s="5">
+      <c r="I86" s="5">
         <v>247</v>
       </c>
-      <c r="I86" s="5">
+      <c r="J86" s="5">
         <v>176</v>
       </c>
-      <c r="J86" s="3">
+      <c r="K86" s="3">
         <v>1.3</v>
       </c>
-      <c r="K86" s="5">
+      <c r="L86" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L86" s="10">
+      <c r="M86" s="10">
         <v>81</v>
       </c>
-      <c r="M86" s="3">
+      <c r="N86" s="3">
         <v>76</v>
       </c>
-      <c r="N86" s="3">
+      <c r="O86" s="3">
         <v>529</v>
       </c>
-      <c r="O86" s="3">
+      <c r="P86" s="3">
         <v>543</v>
       </c>
-      <c r="P86" s="3">
+      <c r="Q86" s="3">
         <v>0.62</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="R86" s="3">
         <v>3</v>
       </c>
-      <c r="R86" s="3">
+      <c r="S86" s="3">
         <v>5</v>
       </c>
-      <c r="S86" s="3">
+      <c r="T86" s="3">
         <v>0.375</v>
       </c>
-      <c r="T86" s="3">
+      <c r="U86" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="L88" s="4"/>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="M88" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K86">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L86">
     <sortCondition ref="B2:B86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
